--- a/public/standardFormats/papersetter.xlsx
+++ b/public/standardFormats/papersetter.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">instId</t>
   </si>
@@ -37,16 +37,10 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">subjectList</t>
-  </si>
-  <si>
     <t xml:space="preserve">ABC</t>
   </si>
   <si>
     <t xml:space="preserve">pawan.khade@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub_01,Both_01</t>
   </si>
 </sst>
 </file>
@@ -247,18 +241,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -277,28 +271,22 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>531</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>9764465052</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>12345678</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
